--- a/modules/fidParser/tplXlsx/tpl-cian.xlsx
+++ b/modules/fidParser/tplXlsx/tpl-cian.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t xml:space="preserve">Lng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CountryCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
   </si>
   <si>
     <t xml:space="preserve">TransportType</t>
@@ -185,11 +191,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -205,6 +212,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Liberation Mono;Courier New;DejaVu Sans Mono;Courier;Monaco"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -254,17 +267,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -288,17 +309,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AW3"/>
+  <dimension ref="A1:AX3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="3" style="0" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="35" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="8" style="0" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="36" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -318,53 +341,53 @@
         <v>4</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -372,49 +395,50 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -423,23 +447,27 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="J2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -447,215 +475,219 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="S2" s="1"/>
+      <c r="T2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="W2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
+      <c r="X2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="Y2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AB2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AC2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AD2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AE2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AF2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AG2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
+      <c r="AH2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="T3" s="3" t="n">
+      <c r="T3" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="U3" s="3" t="n">
+      <c r="U3" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="V3" s="3" t="n">
+      <c r="V3" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="W3" s="3" t="n">
+      <c r="W3" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="X3" s="3" t="n">
+      <c r="X3" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="Y3" s="3" t="n">
+      <c r="Y3" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="Z3" s="3" t="n">
+      <c r="Z3" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AB3" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AD3" s="3" t="n">
+      <c r="AD3" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AE3" s="3" t="n">
+      <c r="AE3" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="AF3" s="3" t="n">
+      <c r="AF3" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="AG3" s="3" t="n">
+      <c r="AG3" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="AH3" s="3" t="n">
+      <c r="AH3" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="AI3" s="3" t="n">
+      <c r="AI3" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="AJ3" s="3" t="n">
+      <c r="AJ3" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="AK3" s="3" t="n">
+      <c r="AK3" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="AL3" s="3" t="n">
+      <c r="AL3" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="AM3" s="3" t="n">
+      <c r="AM3" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="AN3" s="3" t="n">
+      <c r="AN3" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="AO3" s="3" t="n">
+      <c r="AO3" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="AP3" s="3" t="n">
+      <c r="AP3" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="AQ3" s="3" t="n">
+      <c r="AQ3" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="AR3" s="3" t="n">
+      <c r="AR3" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="AS3" s="3" t="n">
+      <c r="AS3" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="AT3" s="3" t="n">
+      <c r="AT3" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="AU3" s="3" t="n">
+      <c r="AU3" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="AV3" s="3" t="n">
+      <c r="AV3" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="AW3" s="3" t="n">
+      <c r="AW3" s="5" t="n">
         <v>49</v>
+      </c>
+      <c r="AX3" s="5" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -665,9 +697,8 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
@@ -675,10 +706,10 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:AH1"/>
-    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AI1"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="AL1:AL2"/>
@@ -693,6 +724,7 @@
     <mergeCell ref="AU1:AU2"/>
     <mergeCell ref="AV1:AV2"/>
     <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
